--- a/src/main/resources/AddKitchen.xlsx
+++ b/src/main/resources/AddKitchen.xlsx
@@ -72,10 +72,10 @@
     <t>Kitchen - 12312</t>
   </si>
   <si>
-    <t>FriedKitchen</t>
-  </si>
-  <si>
-    <t>Kitchen - 354</t>
+    <t>SekarKitchen</t>
+  </si>
+  <si>
+    <t>Kitchen - 359</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/resources/AddKitchen.xlsx
+++ b/src/main/resources/AddKitchen.xlsx
@@ -72,10 +72,10 @@
     <t>Kitchen - 12312</t>
   </si>
   <si>
-    <t>SekarKitchen</t>
-  </si>
-  <si>
-    <t>Kitchen - 359</t>
+    <t>Kitchen - 360</t>
+  </si>
+  <si>
+    <t>Beast Kitchen</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,10 +464,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>

--- a/src/main/resources/AddKitchen.xlsx
+++ b/src/main/resources/AddKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="13810" windowHeight="3610"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="13810" windowHeight="3610" tabRatio="206"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Kitchen Code</t>
   </si>
@@ -72,10 +72,52 @@
     <t>Kitchen - 12312</t>
   </si>
   <si>
-    <t>Kitchen - 360</t>
-  </si>
-  <si>
-    <t>Beast Kitchen</t>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t>Nestle Kitchens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nestle Kitchens             </t>
+  </si>
+  <si>
+    <t>Kitchen - 369</t>
+  </si>
+  <si>
+    <t>Kitchen - 370</t>
   </si>
 </sst>
 </file>
@@ -417,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -470,33 +512,33 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -505,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -517,6 +559,93 @@
         <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/src/main/resources/AddKitchen.xlsx
+++ b/src/main/resources/AddKitchen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Kitchen Code</t>
   </si>
@@ -66,12 +66,6 @@
     <t>600028</t>
   </si>
   <si>
-    <t>KK Kitchen B243</t>
-  </si>
-  <si>
-    <t>Kitchen - 12312</t>
-  </si>
-  <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t xml:space="preserve">          </t>
   </si>
   <si>
-    <t>Nestle Kitchens</t>
-  </si>
-  <si>
     <t xml:space="preserve">                 </t>
   </si>
   <si>
@@ -111,13 +102,25 @@
     <t xml:space="preserve">                            </t>
   </si>
   <si>
-    <t xml:space="preserve">Nestle Kitchens             </t>
-  </si>
-  <si>
-    <t>Kitchen - 369</t>
-  </si>
-  <si>
     <t>Kitchen - 370</t>
+  </si>
+  <si>
+    <t>Kitchen - 371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parle Kitchens         </t>
+  </si>
+  <si>
+    <t>Parle Kitchens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  </t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,39 +509,39 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -547,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
@@ -564,39 +567,39 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -622,31 +625,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/AddKitchen.xlsx
+++ b/src/main/resources/AddKitchen.xlsx
@@ -102,18 +102,6 @@
     <t xml:space="preserve">                            </t>
   </si>
   <si>
-    <t>Kitchen - 370</t>
-  </si>
-  <si>
-    <t>Kitchen - 371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parle Kitchens         </t>
-  </si>
-  <si>
-    <t>Parle Kitchens</t>
-  </si>
-  <si>
     <t xml:space="preserve">             </t>
   </si>
   <si>
@@ -121,6 +109,18 @@
   </si>
   <si>
     <t xml:space="preserve">                  </t>
+  </si>
+  <si>
+    <t>Kitchen - 374</t>
+  </si>
+  <si>
+    <t>Kitchen - 375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parley Kitchens         </t>
+  </si>
+  <si>
+    <t>Hamley Kitchens</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -538,10 +538,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -625,19 +625,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
